--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2495942.615589683</v>
+        <v>2493685.593680599</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836236</v>
+        <v>6654055.582836239</v>
       </c>
     </row>
     <row r="8">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>403.2634945072138</v>
+        <v>390.7529822392023</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>82.92375604299538</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>383.1210607601529</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>219.9860270676942</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>156.1271626621472</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>190.2713935802971</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>5.983388191319379</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>126.7477612906596</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>120.4120358099645</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1333,31 +1333,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>14.48345164522501</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1424,7 +1424,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589034</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>74.75769145492352</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>40.6444443721314</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1661,7 +1661,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9951719589034</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>163.6898441249701</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761693</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>109.7472660450983</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004739</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.769025331442</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>181.1375494785986</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>10.40839188245958</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761693</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2299,10 +2299,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>116.3127963634642</v>
       </c>
       <c r="X22" t="n">
-        <v>209.5675193320698</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2482,13 +2482,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,22 +2521,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>215.9919723025116</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>133.7117411111178</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2573,7 +2573,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>30.6627831690266</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2767,16 +2767,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>65.92009399575491</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>46.81382800566013</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3004,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>7.730549048947529</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>131.5730391207947</v>
+        <v>53.18823704331147</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3244,7 +3244,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3284,7 +3284,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,10 +3317,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>164.6532255566601</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3430,10 +3430,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>145.3777073581636</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>144.3647927345257</v>
+        <v>144.3647927345258</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>87.87589738164188</v>
       </c>
       <c r="S37" t="n">
-        <v>188.7127700430363</v>
+        <v>188.7127700430364</v>
       </c>
       <c r="T37" t="n">
-        <v>218.4926939877636</v>
+        <v>218.4926939877637</v>
       </c>
       <c r="U37" t="n">
-        <v>285.1555829172073</v>
+        <v>285.1555829172074</v>
       </c>
       <c r="V37" t="n">
-        <v>251.0813880354224</v>
+        <v>251.0813880354225</v>
       </c>
       <c r="W37" t="n">
-        <v>285.4667430481854</v>
+        <v>285.4667430481855</v>
       </c>
       <c r="X37" t="n">
-        <v>114.2764176170828</v>
+        <v>224.6534001006317</v>
       </c>
       <c r="Y37" t="n">
-        <v>217.5283980636892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3679,7 +3679,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124582</v>
+        <v>49.37728379124571</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
@@ -3913,7 +3913,7 @@
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572838</v>
       </c>
       <c r="I43" t="n">
         <v>49.37728379124554</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4153,7 +4153,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2465.942913862886</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C2" t="n">
-        <v>2096.980396922474</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="D2" t="n">
-        <v>1738.714698315724</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="E2" t="n">
-        <v>1352.926445717479</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="F2" t="n">
-        <v>941.9405409278718</v>
+        <v>929.3036598490722</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2465.942913862886</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2465.942913862886</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>2465.942913862886</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4416,7 +4416,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.7988452409105</v>
+        <v>137.7043515607638</v>
       </c>
       <c r="C4" t="n">
-        <v>498.8626623130036</v>
+        <v>137.7043515607638</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>137.7043515607638</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>137.7043515607638</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>137.7043515607638</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>137.7043515607638</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>137.7043515607638</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>137.7043515607638</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1791.109440255352</v>
+        <v>1526.106027515566</v>
       </c>
       <c r="C5" t="n">
-        <v>1422.14692331494</v>
+        <v>1526.106027515566</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>1167.840328908816</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>782.0520763105717</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.282427122408</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U5" t="n">
-        <v>2474.940982869036</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V5" t="n">
-        <v>2143.878095525466</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>1791.109440255352</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X5" t="n">
-        <v>1791.109440255352</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="Y5" t="n">
-        <v>1791.109440255352</v>
+        <v>1526.106027515566</v>
       </c>
     </row>
     <row r="6">
@@ -4620,43 +4620,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598709</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4665,28 +4665,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,7 +4732,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
         <v>529.6040388502502</v>
@@ -4741,34 +4741,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S7" t="n">
-        <v>570.4247794971948</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T7" t="n">
-        <v>343.1165921657965</v>
+        <v>500.8207968750363</v>
       </c>
       <c r="U7" t="n">
-        <v>53.94298182036445</v>
+        <v>500.8207968750363</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>246.1363086691494</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>246.1363086691494</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>246.1363086691494</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>808.0839286340174</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="C8" t="n">
-        <v>439.1214116936057</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D8" t="n">
-        <v>80.85571308685519</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224074</v>
@@ -4814,40 +4814,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>1894.539591564835</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.823100673951</v>
+        <v>1766.511549857098</v>
       </c>
       <c r="Y8" t="n">
-        <v>1194.683768698139</v>
+        <v>1376.372217881286</v>
       </c>
     </row>
     <row r="9">
@@ -4872,28 +4872,28 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598709</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>325.6879402326643</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>325.6879402326643</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>175.5713008203286</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>323.2572191628423</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>323.2572191628423</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>68.57273095695538</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
@@ -5036,55 +5036,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>2642.582663047919</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542188</v>
+        <v>3189.361480106701</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232733</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679679</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188667</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5094,31 +5094,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089888</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
         <v>427.5025029193589</v>
@@ -5136,22 +5136,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5160,10 +5160,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>361.822894557956</v>
+        <v>171.0738540998323</v>
       </c>
       <c r="C13" t="n">
-        <v>192.8867116300491</v>
+        <v>171.0738540998323</v>
       </c>
       <c r="D13" t="n">
-        <v>192.8867116300491</v>
+        <v>171.0738540998323</v>
       </c>
       <c r="E13" t="n">
-        <v>192.8867116300491</v>
+        <v>171.0738540998323</v>
       </c>
       <c r="F13" t="n">
-        <v>192.8867116300491</v>
+        <v>171.0738540998323</v>
       </c>
       <c r="G13" t="n">
-        <v>192.8867116300491</v>
+        <v>171.0738540998323</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5212,37 +5212,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
         <v>1866.513008862231</v>
       </c>
       <c r="S13" t="n">
-        <v>1866.513008862231</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1825.458014546947</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1536.355147672591</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V13" t="n">
-        <v>1281.670659466704</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W13" t="n">
-        <v>992.2534894297432</v>
+        <v>619.8559841413797</v>
       </c>
       <c r="X13" t="n">
-        <v>764.2639385317259</v>
+        <v>391.8664332433624</v>
       </c>
       <c r="Y13" t="n">
-        <v>543.4713593881958</v>
+        <v>171.0738540998323</v>
       </c>
     </row>
     <row r="14">
@@ -5255,67 +5255,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L14" t="n">
-        <v>1898.858917622689</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M14" t="n">
-        <v>2432.390822294614</v>
+        <v>2649.230460361821</v>
       </c>
       <c r="N14" t="n">
-        <v>2979.169639353396</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232733</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679679</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188667</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5331,13 +5331,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E15" t="n">
         <v>487.9678785494859</v>
@@ -5346,13 +5346,13 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
         <v>189.2383039390118</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.56103444839444</v>
+        <v>562.5269503710301</v>
       </c>
       <c r="C16" t="n">
-        <v>95.56103444839444</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D16" t="n">
-        <v>95.56103444839438</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839434</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839434</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839434</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839434</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
         <v>1005.387693892251</v>
@@ -5449,37 +5449,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.657581931529</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T16" t="n">
-        <v>1542.890966501055</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U16" t="n">
-        <v>1253.788099626699</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V16" t="n">
-        <v>999.1036114208119</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W16" t="n">
-        <v>709.6864413838512</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X16" t="n">
-        <v>481.6968904858338</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y16" t="n">
-        <v>260.9043113423037</v>
+        <v>562.5269503710301</v>
       </c>
     </row>
     <row r="17">
@@ -5495,55 +5495,55 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551634</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074199</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>657.3479225192166</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L17" t="n">
-        <v>1521.866738172571</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M17" t="n">
-        <v>2055.398642844496</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N17" t="n">
-        <v>2602.177459903278</v>
+        <v>3195.001976422504</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232733</v>
+        <v>3697.97444730184</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679679</v>
+        <v>4411.329534748787</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188667</v>
+        <v>4659.615896504469</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
         <v>4208.252829604875</v>
@@ -5589,7 +5589,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
         <v>189.2383039390118</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839444</v>
+        <v>539.8079542252655</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839444</v>
+        <v>539.8079542252655</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839444</v>
+        <v>389.6913148129298</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839444</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839444</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839444</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
         <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M19" t="n">
         <v>1005.387693892251</v>
@@ -5695,28 +5695,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V19" t="n">
-        <v>1015.408799357143</v>
+        <v>999.1036114208125</v>
       </c>
       <c r="W19" t="n">
-        <v>725.9916293201816</v>
+        <v>988.5900842668129</v>
       </c>
       <c r="X19" t="n">
-        <v>498.0020784221642</v>
+        <v>760.6005333687956</v>
       </c>
       <c r="Y19" t="n">
-        <v>277.2094992786342</v>
+        <v>539.8079542252655</v>
       </c>
     </row>
     <row r="20">
@@ -5726,46 +5726,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>836.0059675195635</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1287.040180767972</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.32865758045</v>
+        <v>2265.590483597801</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807096</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O20" t="n">
-        <v>4010.914672075805</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P20" t="n">
         <v>4405.689038432984</v>
@@ -5783,19 +5783,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5832,10 +5832,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839442</v>
+        <v>343.0033510423848</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839442</v>
+        <v>343.0033510423848</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
@@ -5926,34 +5926,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501055</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V22" t="n">
-        <v>999.1036114208117</v>
+        <v>909.2731541783406</v>
       </c>
       <c r="W22" t="n">
-        <v>709.686441383851</v>
+        <v>791.7854810839323</v>
       </c>
       <c r="X22" t="n">
-        <v>498.0020784221643</v>
+        <v>563.7959301859149</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.2094992786342</v>
+        <v>343.0033510423848</v>
       </c>
     </row>
     <row r="23">
@@ -5966,19 +5966,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5990,43 +5990,43 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>3163.468180669545</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>3666.440651548882</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6042,43 +6042,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O24" t="n">
         <v>2125.96131142685</v>
@@ -6087,7 +6087,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6096,16 +6096,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X24" t="n">
         <v>1346.568408282342</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>264.4972173763014</v>
+        <v>580.1131475839755</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839442</v>
+        <v>411.1769646560687</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839442</v>
+        <v>411.1769646560687</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="G25" t="n">
         <v>95.56103444839442</v>
@@ -6145,52 +6145,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442062</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N25" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1546.483872535053</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1257.381005660696</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>1002.69651745481</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="W25" t="n">
-        <v>713.2793474178488</v>
+        <v>1028.895277625523</v>
       </c>
       <c r="X25" t="n">
-        <v>485.2897965198315</v>
+        <v>800.9057267275057</v>
       </c>
       <c r="Y25" t="n">
-        <v>264.4972173763014</v>
+        <v>580.1131475839755</v>
       </c>
     </row>
     <row r="26">
@@ -6206,19 +6206,19 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
@@ -6233,16 +6233,16 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2016.310259422546</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O26" t="n">
-        <v>4010.914672075805</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
         <v>4653.975400188666</v>
@@ -6279,31 +6279,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
         <v>427.5025029193589</v>
@@ -6321,22 +6321,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>761.2022952478533</v>
+        <v>393.5907674431233</v>
       </c>
       <c r="C28" t="n">
-        <v>592.2661123199464</v>
+        <v>393.5907674431233</v>
       </c>
       <c r="D28" t="n">
-        <v>442.1494729076106</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E28" t="n">
-        <v>294.2363793252175</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>294.2363793252175</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>126.5335426999364</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
         <v>95.56103444839442</v>
@@ -6382,7 +6382,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
         <v>344.6708498442063</v>
@@ -6403,10 +6403,10 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
         <v>1674.827124689058</v>
@@ -6415,19 +6415,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1453.060509258584</v>
+        <v>1386.474555727518</v>
       </c>
       <c r="V28" t="n">
-        <v>1453.060509258584</v>
+        <v>1131.790067521631</v>
       </c>
       <c r="W28" t="n">
-        <v>1163.643339221623</v>
+        <v>842.3728974846707</v>
       </c>
       <c r="X28" t="n">
-        <v>1163.643339221623</v>
+        <v>614.3833465866534</v>
       </c>
       <c r="Y28" t="n">
-        <v>942.850760078093</v>
+        <v>393.5907674431233</v>
       </c>
     </row>
     <row r="29">
@@ -6449,49 +6449,49 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551634</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074199</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972664</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
-        <v>4010.914672075806</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P29" t="n">
-        <v>4405.689038432984</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188667</v>
+        <v>4689.712021827577</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
         <v>4208.252829604875</v>
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
@@ -6537,16 +6537,16 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K30" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6558,22 +6558,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>582.3166934139181</v>
+        <v>439.1815555980844</v>
       </c>
       <c r="C31" t="n">
-        <v>413.3805104860112</v>
+        <v>439.1815555980845</v>
       </c>
       <c r="D31" t="n">
-        <v>263.2638710736755</v>
+        <v>289.0649161857489</v>
       </c>
       <c r="E31" t="n">
-        <v>263.2638710736755</v>
+        <v>289.0649161857489</v>
       </c>
       <c r="F31" t="n">
-        <v>263.2638710736755</v>
+        <v>289.0649161857489</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839444</v>
+        <v>289.0649161857489</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839444</v>
+        <v>142.8477294036067</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6625,16 +6625,16 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N31" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
@@ -6643,28 +6643,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U31" t="n">
-        <v>1756.848946528553</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V31" t="n">
-        <v>1502.164458322666</v>
+        <v>1131.039769608815</v>
       </c>
       <c r="W31" t="n">
-        <v>1212.747288285706</v>
+        <v>841.6225995718542</v>
       </c>
       <c r="X31" t="n">
-        <v>984.7577373876879</v>
+        <v>841.6225995718542</v>
       </c>
       <c r="Y31" t="n">
-        <v>763.9651582441578</v>
+        <v>620.830020428324</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6689,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6698,25 +6698,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L32" t="n">
-        <v>1172.647446689875</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M32" t="n">
-        <v>2151.197749519704</v>
+        <v>2317.998088216516</v>
       </c>
       <c r="N32" t="n">
-        <v>3130.950021746351</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O32" t="n">
-        <v>4010.914672075805</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P32" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
         <v>4653.975400188666</v>
@@ -6753,37 +6753,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6819,10 +6819,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>673.3827746590082</v>
+        <v>464.9024566190095</v>
       </c>
       <c r="C34" t="n">
-        <v>540.4807149410337</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="D34" t="n">
-        <v>390.364075528698</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="E34" t="n">
-        <v>242.4509819463049</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G34" t="n">
         <v>95.56103444839442</v>
@@ -6856,7 +6856,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
         <v>344.6708498442063</v>
@@ -6871,37 +6871,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1734.576850674229</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
-        <v>1445.473983799873</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V34" t="n">
-        <v>1190.789495593986</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="W34" t="n">
-        <v>901.3723255570255</v>
+        <v>874.5404723472665</v>
       </c>
       <c r="X34" t="n">
-        <v>673.3827746590082</v>
+        <v>646.5509214492491</v>
       </c>
       <c r="Y34" t="n">
-        <v>673.3827746590082</v>
+        <v>646.5509214492491</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
         <v>2005.253839749764</v>
@@ -6920,10 +6920,10 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G35" t="n">
         <v>435.1415336001585</v>
@@ -6941,19 +6941,19 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1069.293752345675</v>
+        <v>1299.085123758012</v>
       </c>
       <c r="M35" t="n">
-        <v>2047.844055175504</v>
+        <v>1832.617028429937</v>
       </c>
       <c r="N35" t="n">
-        <v>3027.596327402151</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O35" t="n">
-        <v>3907.560977731605</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P35" t="n">
-        <v>4302.335344088783</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q35" t="n">
         <v>4653.975400188666</v>
@@ -6971,16 +6971,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
@@ -7014,40 +7014,40 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7056,10 +7056,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>388.2302264612119</v>
+        <v>241.3840574125619</v>
       </c>
       <c r="C37" t="n">
-        <v>388.2302264612119</v>
+        <v>241.3840574125619</v>
       </c>
       <c r="D37" t="n">
-        <v>388.2302264612119</v>
+        <v>241.3840574125619</v>
       </c>
       <c r="E37" t="n">
-        <v>241.3840574125618</v>
+        <v>241.3840574125619</v>
       </c>
       <c r="F37" t="n">
         <v>95.56103444839442</v>
@@ -7093,52 +7093,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>141.7293596308515</v>
+        <v>141.7293596308514</v>
       </c>
       <c r="K37" t="n">
-        <v>346.7622353152494</v>
+        <v>346.7622353152491</v>
       </c>
       <c r="L37" t="n">
-        <v>664.3677264992672</v>
+        <v>664.3677264992665</v>
       </c>
       <c r="M37" t="n">
-        <v>1009.570464834338</v>
+        <v>1009.570464834337</v>
       </c>
       <c r="N37" t="n">
-        <v>1352.024534275724</v>
+        <v>1352.024534275723</v>
       </c>
       <c r="O37" t="n">
-        <v>1652.399825931659</v>
+        <v>1652.399825931658</v>
       </c>
       <c r="P37" t="n">
-        <v>1886.05301910084</v>
+        <v>1886.053019100838</v>
       </c>
       <c r="Q37" t="n">
-        <v>1964.709007988876</v>
+        <v>1964.709007988874</v>
       </c>
       <c r="R37" t="n">
-        <v>1964.709007988876</v>
+        <v>1875.945475280145</v>
       </c>
       <c r="S37" t="n">
-        <v>1774.090048349445</v>
+        <v>1685.326515640714</v>
       </c>
       <c r="T37" t="n">
-        <v>1553.390357452714</v>
+        <v>1464.626824743983</v>
       </c>
       <c r="U37" t="n">
-        <v>1265.354415112101</v>
+        <v>1176.59088240337</v>
       </c>
       <c r="V37" t="n">
-        <v>1011.736851439957</v>
+        <v>922.973318731226</v>
       </c>
       <c r="W37" t="n">
-        <v>723.3866059367392</v>
+        <v>634.6230732280083</v>
       </c>
       <c r="X37" t="n">
-        <v>607.955881070999</v>
+        <v>407.7004468637338</v>
       </c>
       <c r="Y37" t="n">
-        <v>388.2302264612119</v>
+        <v>407.7004468637338</v>
       </c>
     </row>
     <row r="38">
@@ -7172,25 +7172,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>351.301436796792</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K38" t="n">
-        <v>685.1208104866384</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L38" t="n">
-        <v>1549.639626139993</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2528.189928969822</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N38" t="n">
-        <v>3507.942201196468</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O38" t="n">
-        <v>4010.914672075805</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
         <v>4653.975400188666</v>
@@ -7242,7 +7242,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
@@ -7251,13 +7251,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7312,19 +7312,19 @@
         <v>667.0286178416717</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774092</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E40" t="n">
         <v>463.8981507430894</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932527</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G40" t="n">
-        <v>244.204632516045</v>
+        <v>244.2046325160445</v>
       </c>
       <c r="H40" t="n">
-        <v>145.4370786819761</v>
+        <v>145.4370786819759</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7354,13 +7354,13 @@
         <v>2328.386548123956</v>
       </c>
       <c r="R40" t="n">
-        <v>2286.005723829558</v>
+        <v>2286.005723829557</v>
       </c>
       <c r="S40" t="n">
         <v>2141.769472604457</v>
       </c>
       <c r="T40" t="n">
-        <v>1967.452490122057</v>
+        <v>1967.452490122056</v>
       </c>
       <c r="U40" t="n">
         <v>1725.799256195774</v>
@@ -7388,19 +7388,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7409,19 +7409,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1453.840519464784</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O41" t="n">
         <v>3482.142110232732</v>
@@ -7436,19 +7436,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
         <v>3150.95552873011</v>
@@ -7479,22 +7479,22 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089896</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468573</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215054</v>
+        <v>788.5151678215057</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416718</v>
+        <v>667.028617841672</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774094</v>
+        <v>564.3616113774096</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430898</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932528</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160449</v>
       </c>
       <c r="H43" t="n">
         <v>145.4370786819758</v>
@@ -7570,7 +7570,7 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490195</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L43" t="n">
         <v>800.7468040499223</v>
@@ -7612,7 +7612,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036718</v>
+        <v>922.713999703672</v>
       </c>
     </row>
     <row r="44">
@@ -7634,10 +7634,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7649,25 +7649,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M44" t="n">
-        <v>2461.328657580449</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N44" t="n">
-        <v>3441.080929807095</v>
+        <v>2883.993034926781</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750059</v>
+        <v>3763.957685256236</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7676,7 +7676,7 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
         <v>4208.252829604874</v>
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G45" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
         <v>114.5683260468565</v>
@@ -7725,13 +7725,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7743,22 +7743,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7767,10 +7767,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215054</v>
+        <v>788.5151678215053</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416718</v>
+        <v>667.0286178416717</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774094</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E46" t="n">
         <v>463.8981507430895</v>
@@ -7807,10 +7807,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516223</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142009</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8307,7 +8307,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783515</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627885</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8544,7 +8544,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783523</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8687,28 +8687,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>308.4529749292122</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476847</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>344.7025836476847</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>315.167921710932</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>39.48321557772749</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>60.01894884691895</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,25 +9398,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>50.84927212317581</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>67.53663776704263</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9638,28 +9638,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>201.3549853008785</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9881,19 +9881,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>420.2833968404719</v>
       </c>
       <c r="O26" t="n">
-        <v>67.53663776704263</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>67.53663776704354</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>29.61882225792094</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,28 +10346,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>104.3976710547477</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>135.6385654278962</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10589,10 +10589,10 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>232.1124963760984</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10601,10 +10601,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>104.3976710547479</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10820,28 +10820,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>67.53663776704252</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11057,22 +11057,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>64.28566532692543</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11297,28 +11297,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>133.253057640027</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>249.451501837949</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23431,10 +23431,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>69.99732345939726</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>178.9045049040378</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.14213605696716</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590283</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983815</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>108.8373873069965</v>
       </c>
     </row>
     <row r="17">
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590283</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,13 +23944,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>105.0742887270143</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.1146064541314</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590283</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983815</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004739</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,10 +24187,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>170.2102019731268</v>
       </c>
       <c r="X22" t="n">
-        <v>16.14213605696733</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590283</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983815</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,22 +24409,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>3.55697697365764</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>152.8112572254732</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24613,10 +24613,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>114.0922317452942</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24655,16 +24655,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>220.291744209858</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>49.53859240417797</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>278.4812891566654</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,22 +25072,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>35.6737819778331</v>
+        <v>114.0585840553164</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>178.7757248935317</v>
+        <v>14.12249933687174</v>
       </c>
       <c r="C37" t="n">
-        <v>166.1905658102223</v>
+        <v>166.1905658102224</v>
       </c>
       <c r="D37" t="n">
-        <v>147.5592177298068</v>
+        <v>147.5592177298069</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>145.3777073581637</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.9695529706227</v>
+        <v>164.9695529706228</v>
       </c>
       <c r="H37" t="n">
-        <v>143.6987596259152</v>
+        <v>143.6987596259153</v>
       </c>
       <c r="I37" t="n">
-        <v>95.29616512143251</v>
+        <v>95.29616512143265</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>87.87589738164176</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25375,10 +25375,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>110.3769824835488</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>217.5283980636893</v>
       </c>
     </row>
     <row r="38">
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-1.298961066497191e-13</v>
+        <v>-1.998414212901049e-15</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>-1.56319401867222e-13</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>811519.1521634763</v>
+        <v>811519.1521634765</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>811519.1521634763</v>
+        <v>811519.1521634765</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>811519.1521634763</v>
+        <v>811519.1521634765</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>811519.1521634763</v>
+        <v>811519.1521634765</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>812123.5194693921</v>
+        <v>812123.519469392</v>
       </c>
     </row>
     <row r="14">
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982129</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982131</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.327398213</v>
       </c>
       <c r="E2" t="n">
+        <v>595622.6803304746</v>
+      </c>
+      <c r="F2" t="n">
+        <v>595622.6803304749</v>
+      </c>
+      <c r="G2" t="n">
+        <v>595622.6803304751</v>
+      </c>
+      <c r="H2" t="n">
+        <v>595622.6803304752</v>
+      </c>
+      <c r="I2" t="n">
         <v>595622.680330475</v>
-      </c>
-      <c r="F2" t="n">
-        <v>595622.680330475</v>
-      </c>
-      <c r="G2" t="n">
-        <v>595622.680330475</v>
-      </c>
-      <c r="H2" t="n">
-        <v>595622.680330475</v>
-      </c>
-      <c r="I2" t="n">
-        <v>595622.6803304751</v>
       </c>
       <c r="J2" t="n">
         <v>595622.680330475</v>
@@ -26341,19 +26341,19 @@
         <v>595622.6803304752</v>
       </c>
       <c r="L2" t="n">
-        <v>595622.6803304753</v>
+        <v>595622.680330475</v>
       </c>
       <c r="M2" t="n">
-        <v>596075.9558099121</v>
+        <v>596075.9558099117</v>
       </c>
       <c r="N2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="O2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.327398213</v>
       </c>
       <c r="P2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982132</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130487.3190696693</v>
+        <v>130487.3190696691</v>
       </c>
       <c r="N3" t="n">
-        <v>36735.10506414958</v>
+        <v>36735.10506414968</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.49231918988</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.49231918988</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="G4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918991</v>
       </c>
       <c r="H4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="I4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="J4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918992</v>
       </c>
       <c r="K4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="L4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="M4" t="n">
-        <v>18496.05294811458</v>
+        <v>18496.05294811457</v>
       </c>
       <c r="N4" t="n">
-        <v>33605.65329740897</v>
+        <v>33605.65329740899</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740894</v>
+        <v>33605.65329740899</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.65329740901</v>
+        <v>33605.65329740899</v>
       </c>
     </row>
     <row r="5">
@@ -26470,37 +26470,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96472.31657955462</v>
+        <v>96472.31657955461</v>
       </c>
       <c r="N5" t="n">
         <v>100332.6710141021</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-240394.316736869</v>
+        <v>-240394.3167368693</v>
       </c>
       <c r="C6" t="n">
-        <v>349573.5624776752</v>
+        <v>349573.5624776757</v>
       </c>
       <c r="D6" t="n">
-        <v>349573.5624776754</v>
+        <v>349573.5624776756</v>
       </c>
       <c r="E6" t="n">
-        <v>-246286.7442358354</v>
+        <v>-246353.9397260614</v>
       </c>
       <c r="F6" t="n">
-        <v>481090.6697575715</v>
+        <v>481023.4742673454</v>
       </c>
       <c r="G6" t="n">
-        <v>481090.6697575714</v>
+        <v>481023.4742673457</v>
       </c>
       <c r="H6" t="n">
-        <v>481090.6697575714</v>
+        <v>481023.4742673458</v>
       </c>
       <c r="I6" t="n">
-        <v>481090.6697575715</v>
+        <v>481023.4742673456</v>
       </c>
       <c r="J6" t="n">
-        <v>304667.4505649784</v>
+        <v>304600.2550747527</v>
       </c>
       <c r="K6" t="n">
-        <v>481090.6697575716</v>
+        <v>481023.4742673458</v>
       </c>
       <c r="L6" t="n">
-        <v>481090.6697575717</v>
+        <v>481023.4742673456</v>
       </c>
       <c r="M6" t="n">
-        <v>350620.2672125736</v>
+        <v>350554.5826406124</v>
       </c>
       <c r="N6" t="n">
-        <v>445107.898022552</v>
+        <v>445107.8980225517</v>
       </c>
       <c r="O6" t="n">
-        <v>481843.0030867013</v>
+        <v>481843.0030867018</v>
       </c>
       <c r="P6" t="n">
-        <v>481843.0030867013</v>
+        <v>481843.0030867021</v>
       </c>
     </row>
   </sheetData>
@@ -26716,7 +26716,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405578</v>
+        <v>1.056255288405464</v>
       </c>
       <c r="N2" t="n">
         <v>46.97513661859256</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405578</v>
+        <v>1.056255288405464</v>
       </c>
       <c r="N2" t="n">
-        <v>45.91888133018698</v>
+        <v>45.9188813301871</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762117</v>
+        <v>712.0330363762115</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,19 +27379,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>10.52067551358118</v>
+        <v>23.03118778159273</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27430,19 +27430,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>73.24713279879977</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>23.75498498155849</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>31.23814044059512</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>56.01837628787166</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>28.31325977179768</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>375.9469818809424</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>242.9833393878095</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>26.02192683660465</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,31 +28053,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>272.039546691366</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.056255288405578</v>
+        <v>1.056255288405464</v>
       </c>
       <c r="C37" t="n">
-        <v>1.056255288405578</v>
+        <v>1.056255288405464</v>
       </c>
       <c r="D37" t="n">
-        <v>1.056255288405578</v>
+        <v>1.056255288405464</v>
       </c>
       <c r="E37" t="n">
-        <v>1.056255288405578</v>
+        <v>1.056255288405464</v>
       </c>
       <c r="F37" t="n">
-        <v>1.056255288405578</v>
+        <v>1.056255288405464</v>
       </c>
       <c r="G37" t="n">
-        <v>1.056255288405578</v>
+        <v>1.056255288405464</v>
       </c>
       <c r="H37" t="n">
-        <v>1.056255288405578</v>
+        <v>1.056255288405464</v>
       </c>
       <c r="I37" t="n">
-        <v>1.056255288405578</v>
+        <v>1.056255288405464</v>
       </c>
       <c r="J37" t="n">
-        <v>1.056255288405578</v>
+        <v>1.056255288405464</v>
       </c>
       <c r="K37" t="n">
-        <v>1.056255288405578</v>
+        <v>1.056255288405464</v>
       </c>
       <c r="L37" t="n">
-        <v>1.056255288405578</v>
+        <v>1.056255288405464</v>
       </c>
       <c r="M37" t="n">
-        <v>1.056255288405578</v>
+        <v>1.056255288405464</v>
       </c>
       <c r="N37" t="n">
-        <v>1.056255288405578</v>
+        <v>1.056255288405464</v>
       </c>
       <c r="O37" t="n">
-        <v>1.056255288405578</v>
+        <v>1.056255288405464</v>
       </c>
       <c r="P37" t="n">
-        <v>1.056255288405578</v>
+        <v>1.056255288405464</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.056255288405578</v>
+        <v>1.056255288405464</v>
       </c>
       <c r="R37" t="n">
-        <v>1.056255288405578</v>
+        <v>1.056255288405464</v>
       </c>
       <c r="S37" t="n">
-        <v>1.056255288405578</v>
+        <v>1.056255288405464</v>
       </c>
       <c r="T37" t="n">
-        <v>1.056255288405578</v>
+        <v>1.056255288405464</v>
       </c>
       <c r="U37" t="n">
-        <v>1.056255288405578</v>
+        <v>1.056255288405464</v>
       </c>
       <c r="V37" t="n">
-        <v>1.056255288405578</v>
+        <v>1.056255288405464</v>
       </c>
       <c r="W37" t="n">
-        <v>1.056255288405578</v>
+        <v>1.056255288405464</v>
       </c>
       <c r="X37" t="n">
-        <v>1.056255288405578</v>
+        <v>1.056255288405464</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.056255288405578</v>
+        <v>1.056255288405464</v>
       </c>
     </row>
     <row r="38">
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>-1.06581410364015e-12</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,7 +31282,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31291,34 +31291,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,40 +31355,40 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I6" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
@@ -31397,7 +31397,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31458,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32333,7 +32333,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32549,7 +32549,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -32792,7 +32792,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
         <v>593.9283018233475</v>
@@ -33263,7 +33263,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,16 +34784,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279162</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34939,22 +34939,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,22 +35012,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262118</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307151</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>847.374090759439</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7555845359038</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
         <v>125.3296184152072</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>800.2926980400168</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>854.0890375411587</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35817,13 +35817,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.3942385378936</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>376.674502133128</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>119.6321473891437</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35981,7 +35981,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36051,10 +36051,10 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.85694616754</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
@@ -36118,25 +36118,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>388.0405586785763</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>575.5896386552618</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
         <v>250.7943048037195</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
         <v>347.6333793934838</v>
@@ -36291,7 +36291,7 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
@@ -36358,28 +36358,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>600.1169715202503</v>
       </c>
       <c r="Q23" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,7 +36440,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
         <v>451.7942679013292</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,7 +36528,7 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
@@ -36601,19 +36601,19 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>972.5852322533834</v>
       </c>
       <c r="O26" t="n">
-        <v>575.5896386552618</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>575.5896386552627</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>89.23202080014572</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>559.9877854470799</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>674.559681258123</v>
       </c>
       <c r="N32" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>687.7026107684303</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
-        <v>355.1919758584674</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>46.6346719014718</v>
+        <v>46.63467190147166</v>
       </c>
       <c r="K37" t="n">
-        <v>207.1039148327251</v>
+        <v>207.103914832725</v>
       </c>
       <c r="L37" t="n">
-        <v>320.8136274586038</v>
+        <v>320.8136274586035</v>
       </c>
       <c r="M37" t="n">
-        <v>348.6896346818894</v>
+        <v>348.6896346818892</v>
       </c>
       <c r="N37" t="n">
-        <v>345.9132014559457</v>
+        <v>345.9132014559455</v>
       </c>
       <c r="O37" t="n">
-        <v>303.4093855110453</v>
+        <v>303.4093855110452</v>
       </c>
       <c r="P37" t="n">
-        <v>236.013326433516</v>
+        <v>236.0133264335158</v>
       </c>
       <c r="Q37" t="n">
-        <v>79.45049382629924</v>
+        <v>79.45049382629909</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>258.3236387357551</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,25 +37698,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3693751564862</v>
@@ -37777,22 +37777,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>519.8757797192576</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908545</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>641.306058528246</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>648.2134880573209</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597767</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3693751564862</v>
